--- a/Gantt_chart.xlsx
+++ b/Gantt_chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="953" documentId="8_{31A336BB-3499-41DB-A7E0-12D47DD111C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF053950-84E9-43CD-A3CB-D1D3DB4E1EF7}"/>
+  <xr:revisionPtr revIDLastSave="956" documentId="8_{31A336BB-3499-41DB-A7E0-12D47DD111C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F58A7DA-A618-4060-815E-670394B906FD}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="84">
   <si>
     <t>Opprett et Gantt-diagram i dette regnearket.
 Skriv inn tittelen på prosjektet i celle B1. 
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Requirements, solutions, age group, problems</t>
+  </si>
+  <si>
+    <t>Errors?</t>
   </si>
 </sst>
 </file>
@@ -2283,7 +2286,7 @@
   <dimension ref="A1:DI54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="34" zoomScaleNormal="34" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -6066,7 +6069,7 @@
       <c r="CD29" s="51"/>
       <c r="CE29" s="51"/>
       <c r="CF29" s="51"/>
-      <c r="CG29" s="51"/>
+      <c r="CG29" s="98"/>
       <c r="CH29" s="51"/>
       <c r="CI29" s="51"/>
       <c r="CJ29" s="51"/>
@@ -6346,7 +6349,9 @@
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="94"/>
+      <c r="B32" s="94" t="s">
+        <v>83</v>
+      </c>
       <c r="C32" s="37" t="s">
         <v>43</v>
       </c>
@@ -6356,7 +6361,7 @@
         <v>43908</v>
       </c>
       <c r="G32" s="105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="50"/>
